--- a/游戏策划/部分游戏经历_肥羊.xlsx
+++ b/游戏策划/部分游戏经历_肥羊.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tf\Desktop\游戏策划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\插件工具\自写\Game-Design\游戏策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{229997FA-3982-4ACA-A30A-FE7E16ABC95F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E109E5-5505-49B2-96B9-B0190EED55FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D30E2A4-4856-44E6-9C77-8234CD29F192}"/>
   </bookViews>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,6 +395,10 @@
   </si>
   <si>
     <t>梦幻西游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分游戏（还有大部分游戏听说宣发，短时间玩过）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,132 +532,135 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,832 +978,848 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00464B14-2D2B-4A40-979B-DAC8A25D6FD8}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="D22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="10">
         <v>0.5</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.5</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.5</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15" t="s">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="6">
         <v>0.5</v>
       </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="18">
+        <v>7</v>
+      </c>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="18">
         <v>0.5</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="17">
-        <v>3</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="17">
-        <v>2</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="17">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="37">
-        <v>3</v>
-      </c>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="37">
-        <v>7</v>
-      </c>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="37">
-        <v>1</v>
-      </c>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="19"/>
       <c r="I51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="4" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="13" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="16">
         <v>6</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="16">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="16">
         <v>1</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="18">
         <v>0.5</v>
       </c>
-      <c r="E58" s="38"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="18">
         <v>0.3</v>
       </c>
-      <c r="E59" s="38"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="20" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="18">
         <v>0.3</v>
       </c>
-      <c r="E60" s="38"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="20" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="18">
         <v>0.2</v>
       </c>
-      <c r="E61" s="38"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="20" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="18">
         <v>0.2</v>
       </c>
-      <c r="E62" s="38"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="38"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="20" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="18">
         <v>0.3</v>
       </c>
-      <c r="E64" s="38"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="20" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="18">
         <v>0.5</v>
       </c>
-      <c r="E65" s="38"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="20" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="38"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="41" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="38"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="20" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="37"/>
-      <c r="E68" s="38"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="20" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="A58:A69"/>
     <mergeCell ref="B25:B27"/>
@@ -1809,22 +1828,6 @@
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/游戏策划/部分游戏经历_肥羊.xlsx
+++ b/游戏策划/部分游戏经历_肥羊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\插件工具\自写\Game-Design\游戏策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E109E5-5505-49B2-96B9-B0190EED55FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A94012-F942-4690-9200-350AB300CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D30E2A4-4856-44E6-9C77-8234CD29F192}"/>
+    <workbookView xWindow="6435" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{6D30E2A4-4856-44E6-9C77-8234CD29F192}"/>
   </bookViews>
   <sheets>
     <sheet name="游戏经历" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,39 +366,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>保卫萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物大战僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋与制作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poly Bridge 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自走棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻西游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分游戏（还有大部分游戏听说宣发，短时间玩过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>战地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保卫萝卜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物大战僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三国志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋与制作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poly Bridge 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自走棋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻西游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分游戏（还有大部分游戏听说宣发，短时间玩过）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +582,6 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,12 +594,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,9 +667,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00464B14-2D2B-4A40-979B-DAC8A25D6FD8}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,13 +998,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1023,8 +1030,8 @@
       <c r="B3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>92</v>
+      <c r="C3" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>81</v>
@@ -1034,10 +1041,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1049,8 +1056,8 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1067,8 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1071,8 +1078,8 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1082,10 +1089,10 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="10">
         <v>0.5</v>
@@ -1093,8 +1100,8 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1106,21 +1113,21 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="10">
         <v>0.5</v>
@@ -1128,156 +1135,156 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10">
         <v>0.3</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.1</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>0.5</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="24" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="2" t="s">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>0.8</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="2" t="s">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>0.5</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D24" s="6">
         <v>0.2</v>
@@ -1285,71 +1292,71 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>1.5</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="9" t="s">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>0.5</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="9" t="s">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>0.2</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="21" t="s">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="9" t="s">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -1357,36 +1364,36 @@
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B33" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D33" s="6">
         <v>0.5</v>
@@ -1394,19 +1401,19 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D34" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="2" t="s">
         <v>85</v>
       </c>
@@ -1416,10 +1423,10 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D36" s="6">
         <v>0.4</v>
@@ -1427,21 +1434,21 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D38" s="6">
         <v>0.2</v>
@@ -1449,10 +1456,10 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D39" s="6">
         <v>0.2</v>
@@ -1460,34 +1467,34 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6">
         <v>0.2</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D41" s="6">
         <v>0.2</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D42" s="6">
         <v>0.2</v>
@@ -1495,343 +1502,354 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>0.5</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>0.2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24" t="s">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="17">
         <v>3</v>
       </c>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="11" t="s">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D49" s="17">
         <v>0.2</v>
       </c>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="22" t="s">
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="17">
         <v>7</v>
       </c>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="11" t="s">
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D51" s="17">
         <v>1</v>
       </c>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="11" t="s">
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="17">
         <v>0.5</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="I51" t="s">
+      <c r="E52" s="18"/>
+      <c r="I52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D53" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="32"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="15">
         <v>6</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="36"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="15">
         <v>1</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="8" t="s">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="36"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="15">
         <v>1</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="15" t="s">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="36"/>
+      <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B59" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="17">
         <v>0.5</v>
       </c>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="11" t="s">
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="17">
         <v>0.3</v>
       </c>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="11" t="s">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="17">
         <v>0.3</v>
       </c>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="11" t="s">
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="17">
         <v>0.2</v>
       </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="11" t="s">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="17">
         <v>0.2</v>
       </c>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="20" t="s">
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="23"/>
+      <c r="B64" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="23"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="17">
         <v>0.3</v>
       </c>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="11" t="s">
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="17">
         <v>0.5</v>
       </c>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="11" t="s">
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="20" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="23"/>
+      <c r="B68" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="23"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="23"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B25"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B53:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B45 B47:B52 B57:B1048576 B1:B32" xr:uid="{AF08A965-2B8C-4C56-A267-C2A60640C63C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:B46 B48:B53 B58:B1048576 B1:B33" xr:uid="{AF08A965-2B8C-4C56-A267-C2A60640C63C}">
       <formula1>"Phone,PC,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{789B677E-B23F-45E1-80C2-EDD43CF4F328}">
